--- a/biology/Botanique/Square_de_la_Montagne-Verte/Square_de_la_Montagne-Verte.xlsx
+++ b/biology/Botanique/Square_de_la_Montagne-Verte/Square_de_la_Montagne-Verte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square de la Montagne-Verte est un parc public de Colmar en Alsace.
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est situé dans le quartier centre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est situé dans le quartier centre.
 On y accède par les rues de la Montagne-Verte et des Tanneurs.
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il occupe depuis 1975 le site d'une ancienne école[2].
-En 2020, un nouveau jardin "Montagne-Verte - Parc Georges Pompidou" (1,7 ha) est créé à la place d'un parking transformé en parking souterrain. De nombreux arbres ont été retirés du square de la Montagne-Verte à la suite du réaménagement[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il occupe depuis 1975 le site d'une ancienne école.
+En 2020, un nouveau jardin "Montagne-Verte - Parc Georges Pompidou" (1,7 ha) est créé à la place d'un parking transformé en parking souterrain. De nombreux arbres ont été retirés du square de la Montagne-Verte à la suite du réaménagement.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa superficie est de 3 273 m2.
-On y trouve notamment un peuplier d'Italie planté en 1919 et un sophora japonica datant de 1877[2].
+On y trouve notamment un peuplier d'Italie planté en 1919 et un sophora japonica datant de 1877.
 </t>
         </is>
       </c>
